--- a/Mergers_Acquisitions/raw/am.xlsx
+++ b/Mergers_Acquisitions/raw/am.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usachcl-my.sharepoint.com/personal/tomas_bustamante_h_usach_cl/Documents/Banco_Central/Mergers_Acquisitions/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{598E89B2-167F-4C68-8F46-5A5FD7D4F123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{598E89B2-167F-4C68-8F46-5A5FD7D4F123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04EEFD27-A386-47D8-9B0E-2387143DFDEB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="3135" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25311" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25299" uniqueCount="517">
   <si>
     <t>Title</t>
   </si>
@@ -1625,6 +1638,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1925,10 +1942,13 @@
   <dimension ref="A1:DN277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5506,21 +5526,6 @@
       <c r="E11" t="s">
         <v>237</v>
       </c>
-      <c r="F11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" t="s">
-        <v>237</v>
-      </c>
       <c r="K11" t="s">
         <v>237</v>
       </c>
@@ -5862,9 +5867,6 @@
       <c r="E12" t="s">
         <v>237</v>
       </c>
-      <c r="F12" t="s">
-        <v>237</v>
-      </c>
       <c r="G12" t="s">
         <v>237</v>
       </c>
@@ -6218,9 +6220,6 @@
       <c r="E13" t="s">
         <v>237</v>
       </c>
-      <c r="F13" t="s">
-        <v>237</v>
-      </c>
       <c r="G13" t="s">
         <v>237</v>
       </c>
@@ -6574,9 +6573,6 @@
       <c r="E14" t="s">
         <v>237</v>
       </c>
-      <c r="F14" t="s">
-        <v>237</v>
-      </c>
       <c r="G14" t="s">
         <v>237</v>
       </c>
@@ -6930,9 +6926,6 @@
       <c r="E15" t="s">
         <v>237</v>
       </c>
-      <c r="F15" t="s">
-        <v>237</v>
-      </c>
       <c r="G15" t="s">
         <v>237</v>
       </c>
@@ -7286,9 +7279,6 @@
       <c r="E16" t="s">
         <v>237</v>
       </c>
-      <c r="F16" t="s">
-        <v>237</v>
-      </c>
       <c r="G16" t="s">
         <v>237</v>
       </c>
@@ -7642,9 +7632,6 @@
       <c r="E17" t="s">
         <v>237</v>
       </c>
-      <c r="F17" t="s">
-        <v>237</v>
-      </c>
       <c r="G17" t="s">
         <v>237</v>
       </c>
@@ -7996,9 +7983,6 @@
         <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" t="s">
         <v>237</v>
       </c>
       <c r="G18" t="s">
